--- a/metadata/sample_data_raw.xlsx
+++ b/metadata/sample_data_raw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="309">
   <si>
     <t>Sample ID</t>
   </si>
@@ -787,13 +787,184 @@
   </si>
   <si>
     <t>Sample.ID</t>
+  </si>
+  <si>
+    <t>JB121807_01</t>
+  </si>
+  <si>
+    <t>Jinhae Bay</t>
+  </si>
+  <si>
+    <t>JB121807_02</t>
+  </si>
+  <si>
+    <t>JB121807_03</t>
+  </si>
+  <si>
+    <t>JB121807_04</t>
+  </si>
+  <si>
+    <t>JB121807_05</t>
+  </si>
+  <si>
+    <t>JB121807_06</t>
+  </si>
+  <si>
+    <t>JB121807_07</t>
+  </si>
+  <si>
+    <t>JB121807_08</t>
+  </si>
+  <si>
+    <t>JB121807_09</t>
+  </si>
+  <si>
+    <t>JB121807_10</t>
+  </si>
+  <si>
+    <t>JB121807_11</t>
+  </si>
+  <si>
+    <t>JB121807_12</t>
+  </si>
+  <si>
+    <t>JB121807_13</t>
+  </si>
+  <si>
+    <t>JB121807_14</t>
+  </si>
+  <si>
+    <t>JB121807_15</t>
+  </si>
+  <si>
+    <t>JB121807_16</t>
+  </si>
+  <si>
+    <t>JB121807_17</t>
+  </si>
+  <si>
+    <t>JB121807_18</t>
+  </si>
+  <si>
+    <t>JB121807_19</t>
+  </si>
+  <si>
+    <t>JB121807_20</t>
+  </si>
+  <si>
+    <t>JB121807_21</t>
+  </si>
+  <si>
+    <t>JB121807_22</t>
+  </si>
+  <si>
+    <t>JB121807_23</t>
+  </si>
+  <si>
+    <t>JB121807_24</t>
+  </si>
+  <si>
+    <t>JB121807_25</t>
+  </si>
+  <si>
+    <t>JB121807_26</t>
+  </si>
+  <si>
+    <t>JB121807_27</t>
+  </si>
+  <si>
+    <t>JB121807_28</t>
+  </si>
+  <si>
+    <t>JB121807_29</t>
+  </si>
+  <si>
+    <t>JB121807_30</t>
+  </si>
+  <si>
+    <t>JB121807_31</t>
+  </si>
+  <si>
+    <t>JB121807_32</t>
+  </si>
+  <si>
+    <t>JB121807_33</t>
+  </si>
+  <si>
+    <t>JB121807_34</t>
+  </si>
+  <si>
+    <t>JB121807_35</t>
+  </si>
+  <si>
+    <t>JB121807_36</t>
+  </si>
+  <si>
+    <t>JB121807_37</t>
+  </si>
+  <si>
+    <t>JB121807_38</t>
+  </si>
+  <si>
+    <t>JB121807_39</t>
+  </si>
+  <si>
+    <t>JB121807_40</t>
+  </si>
+  <si>
+    <t>JB121807_41</t>
+  </si>
+  <si>
+    <t>JB121807_42</t>
+  </si>
+  <si>
+    <t>JB121807_43</t>
+  </si>
+  <si>
+    <t>JB121807_44</t>
+  </si>
+  <si>
+    <t>JB121807_45</t>
+  </si>
+  <si>
+    <t>JB121807_46</t>
+  </si>
+  <si>
+    <t>JB121807_47</t>
+  </si>
+  <si>
+    <t>JB121807_48</t>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Length (cm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Length (cm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight (g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,8 +1034,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,8 +1079,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1093,11 +1289,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,9 +1480,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1548,22 +1776,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AZ74"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AO36"/>
+    <sheetView topLeftCell="AI15" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AZ49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="34" max="34" width="12.7109375" customWidth="1"/>
     <col min="35" max="35" width="11.85546875" customWidth="1"/>
+    <col min="43" max="43" width="17.42578125" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" customWidth="1"/>
+    <col min="49" max="49" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="18.75" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1678,8 +1912,20 @@
       <c r="AO1" s="48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW1" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX1" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY1" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ1" s="59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -1784,8 +2030,38 @@
       <c r="AO2" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR2" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS2" s="46">
+        <v>2007</v>
+      </c>
+      <c r="AT2" s="46">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="46">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="46">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="62">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="62">
+        <v>72</v>
+      </c>
+      <c r="AY2" s="62">
+        <v>7940</v>
+      </c>
+      <c r="AZ2" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1890,8 +2166,38 @@
       <c r="AO3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ3" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR3" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS3" s="52">
+        <v>2007</v>
+      </c>
+      <c r="AT3" s="52">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="52">
+        <v>18</v>
+      </c>
+      <c r="AV3" s="58">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="62">
+        <v>76</v>
+      </c>
+      <c r="AX3" s="62">
+        <v>67</v>
+      </c>
+      <c r="AY3" s="62">
+        <v>6240</v>
+      </c>
+      <c r="AZ3" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="15.75" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
@@ -1996,8 +2302,38 @@
       <c r="AO4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="62">
+        <v>75</v>
+      </c>
+      <c r="AX4" s="62">
+        <v>64</v>
+      </c>
+      <c r="AY4" s="62">
+        <v>5500</v>
+      </c>
+      <c r="AZ4" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
@@ -2102,8 +2438,38 @@
       <c r="AO5" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ5" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS5" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT5" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="62">
+        <v>83</v>
+      </c>
+      <c r="AX5" s="62">
+        <v>71</v>
+      </c>
+      <c r="AY5" s="62">
+        <v>7620</v>
+      </c>
+      <c r="AZ5" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="15.75" thickBot="1">
       <c r="A6" s="24" t="s">
         <v>17</v>
       </c>
@@ -2208,8 +2574,38 @@
       <c r="AO6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR6" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS6" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT6" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU6" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="62">
+        <v>71</v>
+      </c>
+      <c r="AX6" s="62">
+        <v>62</v>
+      </c>
+      <c r="AY6" s="62">
+        <v>4410</v>
+      </c>
+      <c r="AZ6" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15.75" thickBot="1">
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
@@ -2314,8 +2710,38 @@
       <c r="AO7" s="51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR7" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS7" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT7" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW7" s="62">
+        <v>70</v>
+      </c>
+      <c r="AX7" s="62">
+        <v>61</v>
+      </c>
+      <c r="AY7" s="62">
+        <v>4560</v>
+      </c>
+      <c r="AZ7" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="15.75" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
@@ -2420,8 +2846,38 @@
       <c r="AO8" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR8" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS8" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW8" s="62">
+        <v>69</v>
+      </c>
+      <c r="AX8" s="62">
+        <v>60</v>
+      </c>
+      <c r="AY8" s="62">
+        <v>5100</v>
+      </c>
+      <c r="AZ8" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="15.75" thickBot="1">
       <c r="A9" s="24" t="s">
         <v>20</v>
       </c>
@@ -2526,8 +2982,38 @@
       <c r="AO9" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS9" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT9" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AW9" s="62">
+        <v>76</v>
+      </c>
+      <c r="AX9" s="62">
+        <v>67</v>
+      </c>
+      <c r="AY9" s="62">
+        <v>6650</v>
+      </c>
+      <c r="AZ9" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15.75" thickBot="1">
       <c r="A10" s="24" t="s">
         <v>21</v>
       </c>
@@ -2632,8 +3118,38 @@
       <c r="AO10" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS10" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AW10" s="62">
+        <v>68</v>
+      </c>
+      <c r="AX10" s="62">
+        <v>60</v>
+      </c>
+      <c r="AY10" s="62">
+        <v>3560</v>
+      </c>
+      <c r="AZ10" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="15.75" thickBot="1">
       <c r="A11" s="24" t="s">
         <v>22</v>
       </c>
@@ -2738,8 +3254,38 @@
       <c r="AO11" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ11" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR11" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS11" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT11" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>10</v>
+      </c>
+      <c r="AW11" s="62">
+        <v>70</v>
+      </c>
+      <c r="AX11" s="62">
+        <v>62</v>
+      </c>
+      <c r="AY11" s="62">
+        <v>3840</v>
+      </c>
+      <c r="AZ11" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2844,8 +3390,38 @@
       <c r="AO12" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ12" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS12" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT12" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU12" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>11</v>
+      </c>
+      <c r="AW12" s="62">
+        <v>68</v>
+      </c>
+      <c r="AX12" s="62">
+        <v>57</v>
+      </c>
+      <c r="AY12" s="62">
+        <v>3700</v>
+      </c>
+      <c r="AZ12" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -2950,8 +3526,38 @@
       <c r="AO13" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS13" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AW13" s="62">
+        <v>64</v>
+      </c>
+      <c r="AX13" s="62">
+        <v>54</v>
+      </c>
+      <c r="AY13" s="62">
+        <v>4370</v>
+      </c>
+      <c r="AZ13" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15.75" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -3056,8 +3662,38 @@
       <c r="AO14" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ14" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR14" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS14" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT14" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV14" s="8">
+        <v>13</v>
+      </c>
+      <c r="AW14" s="62">
+        <v>66</v>
+      </c>
+      <c r="AX14" s="62">
+        <v>59</v>
+      </c>
+      <c r="AY14" s="62">
+        <v>3450</v>
+      </c>
+      <c r="AZ14" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="15.75" thickBot="1">
       <c r="A15" s="26" t="s">
         <v>26</v>
       </c>
@@ -3162,8 +3798,38 @@
       <c r="AO15" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ15" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR15" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS15" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT15" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>14</v>
+      </c>
+      <c r="AW15" s="62">
+        <v>70</v>
+      </c>
+      <c r="AX15" s="62">
+        <v>61</v>
+      </c>
+      <c r="AY15" s="62">
+        <v>3150</v>
+      </c>
+      <c r="AZ15" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="15.75" thickBot="1">
       <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
@@ -3268,8 +3934,38 @@
       <c r="AO16" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ16" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR16" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS16" s="52">
+        <v>2007</v>
+      </c>
+      <c r="AT16" s="52">
+        <v>12</v>
+      </c>
+      <c r="AU16" s="52">
+        <v>18</v>
+      </c>
+      <c r="AV16" s="58">
+        <v>15</v>
+      </c>
+      <c r="AW16" s="62">
+        <v>60</v>
+      </c>
+      <c r="AX16" s="62">
+        <v>52</v>
+      </c>
+      <c r="AY16" s="62">
+        <v>2930</v>
+      </c>
+      <c r="AZ16" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" ht="15.75" thickBot="1">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -3374,8 +4070,38 @@
       <c r="AO17" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ17" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR17" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS17" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT17" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU17" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV17" s="8">
+        <v>16</v>
+      </c>
+      <c r="AW17" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX17" s="62">
+        <v>59</v>
+      </c>
+      <c r="AY17" s="62">
+        <v>3690</v>
+      </c>
+      <c r="AZ17" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" ht="15.75" thickBot="1">
       <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
@@ -3480,8 +4206,38 @@
       <c r="AO18" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ18" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR18" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS18" s="52">
+        <v>2007</v>
+      </c>
+      <c r="AT18" s="52">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="52">
+        <v>18</v>
+      </c>
+      <c r="AV18" s="58">
+        <v>17</v>
+      </c>
+      <c r="AW18" s="62">
+        <v>60</v>
+      </c>
+      <c r="AX18" s="62">
+        <v>51</v>
+      </c>
+      <c r="AY18" s="62">
+        <v>3600</v>
+      </c>
+      <c r="AZ18" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" ht="15.75" thickBot="1">
       <c r="A19" s="26" t="s">
         <v>30</v>
       </c>
@@ -3586,8 +4342,38 @@
       <c r="AO19" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ19" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR19" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS19" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT19" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV19" s="8">
+        <v>18</v>
+      </c>
+      <c r="AW19" s="62">
+        <v>59</v>
+      </c>
+      <c r="AX19" s="62">
+        <v>51</v>
+      </c>
+      <c r="AY19" s="62">
+        <v>3100</v>
+      </c>
+      <c r="AZ19" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" ht="15.75" thickBot="1">
       <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
@@ -3692,8 +4478,38 @@
       <c r="AO20" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR20" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS20" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT20" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU20" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV20" s="8">
+        <v>19</v>
+      </c>
+      <c r="AW20" s="62">
+        <v>70</v>
+      </c>
+      <c r="AX20" s="62">
+        <v>61</v>
+      </c>
+      <c r="AY20" s="62">
+        <v>4340</v>
+      </c>
+      <c r="AZ20" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" ht="15.75" thickBot="1">
       <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
@@ -3798,8 +4614,38 @@
       <c r="AO21" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR21" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS21" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV21" s="8">
+        <v>20</v>
+      </c>
+      <c r="AW21" s="62">
+        <v>58</v>
+      </c>
+      <c r="AX21" s="62">
+        <v>50.5</v>
+      </c>
+      <c r="AY21" s="62">
+        <v>2860</v>
+      </c>
+      <c r="AZ21" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" ht="15.75" thickBot="1">
       <c r="A22" s="26" t="s">
         <v>33</v>
       </c>
@@ -3904,8 +4750,38 @@
       <c r="AO22" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ22" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR22" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS22" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT22" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU22" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV22" s="8">
+        <v>21</v>
+      </c>
+      <c r="AW22" s="62">
+        <v>75</v>
+      </c>
+      <c r="AX22" s="62">
+        <v>65</v>
+      </c>
+      <c r="AY22" s="62">
+        <v>4900</v>
+      </c>
+      <c r="AZ22" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" ht="15.75" thickBot="1">
       <c r="A23" s="26" t="s">
         <v>34</v>
       </c>
@@ -4010,8 +4886,38 @@
       <c r="AO23" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR23" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS23" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT23" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV23" s="8">
+        <v>22</v>
+      </c>
+      <c r="AW23" s="62">
+        <v>68</v>
+      </c>
+      <c r="AX23" s="62">
+        <v>60</v>
+      </c>
+      <c r="AY23" s="62">
+        <v>3580</v>
+      </c>
+      <c r="AZ23" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="24" t="s">
         <v>35</v>
       </c>
@@ -4126,8 +5032,38 @@
       <c r="AO24" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR24" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS24" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT24" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU24" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV24" s="8">
+        <v>23</v>
+      </c>
+      <c r="AW24" s="62">
+        <v>62</v>
+      </c>
+      <c r="AX24" s="62">
+        <v>53</v>
+      </c>
+      <c r="AY24" s="62">
+        <v>3550</v>
+      </c>
+      <c r="AZ24" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" ht="15.75" thickBot="1">
       <c r="A25" s="27" t="s">
         <v>37</v>
       </c>
@@ -4242,8 +5178,38 @@
       <c r="AO25" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ25" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR25" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS25" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT25" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU25" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV25" s="8">
+        <v>24</v>
+      </c>
+      <c r="AW25" s="62">
+        <v>64</v>
+      </c>
+      <c r="AX25" s="62">
+        <v>54</v>
+      </c>
+      <c r="AY25" s="62">
+        <v>3060</v>
+      </c>
+      <c r="AZ25" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="15.75" thickBot="1">
       <c r="A26" s="24" t="s">
         <v>39</v>
       </c>
@@ -4358,8 +5324,38 @@
       <c r="AO26" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ26" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR26" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS26" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT26" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU26" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV26" s="8">
+        <v>25</v>
+      </c>
+      <c r="AW26" s="62">
+        <v>64</v>
+      </c>
+      <c r="AX26" s="62">
+        <v>55</v>
+      </c>
+      <c r="AY26" s="62">
+        <v>3390</v>
+      </c>
+      <c r="AZ26" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" ht="15.75" thickBot="1">
       <c r="A27" s="24" t="s">
         <v>40</v>
       </c>
@@ -4474,8 +5470,38 @@
       <c r="AO27" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ27" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR27" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS27" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT27" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU27" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV27" s="8">
+        <v>26</v>
+      </c>
+      <c r="AW27" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX27" s="62">
+        <v>57</v>
+      </c>
+      <c r="AY27" s="62">
+        <v>3560</v>
+      </c>
+      <c r="AZ27" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" ht="15.75" thickBot="1">
       <c r="A28" s="24" t="s">
         <v>41</v>
       </c>
@@ -4590,8 +5616,38 @@
       <c r="AO28" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ28" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR28" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS28" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT28" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU28" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>27</v>
+      </c>
+      <c r="AW28" s="62">
+        <v>60</v>
+      </c>
+      <c r="AX28" s="62">
+        <v>53</v>
+      </c>
+      <c r="AY28" s="62">
+        <v>3500</v>
+      </c>
+      <c r="AZ28" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" ht="15.75" thickBot="1">
       <c r="A29" s="24" t="s">
         <v>42</v>
       </c>
@@ -4706,8 +5762,38 @@
       <c r="AO29" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ29" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR29" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS29" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT29" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU29" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV29" s="8">
+        <v>28</v>
+      </c>
+      <c r="AW29" s="62">
+        <v>61</v>
+      </c>
+      <c r="AX29" s="62">
+        <v>54</v>
+      </c>
+      <c r="AY29" s="62">
+        <v>2930</v>
+      </c>
+      <c r="AZ29" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" ht="15.75" thickBot="1">
       <c r="A30" s="24" t="s">
         <v>43</v>
       </c>
@@ -4822,8 +5908,38 @@
       <c r="AO30" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ30" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR30" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS30" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT30" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV30" s="8">
+        <v>29</v>
+      </c>
+      <c r="AW30" s="62">
+        <v>69</v>
+      </c>
+      <c r="AX30" s="62">
+        <v>60</v>
+      </c>
+      <c r="AY30" s="62">
+        <v>4210</v>
+      </c>
+      <c r="AZ30" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" ht="15.75" thickBot="1">
       <c r="A31" s="24" t="s">
         <v>44</v>
       </c>
@@ -4938,8 +6054,38 @@
       <c r="AO31" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ31" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR31" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT31" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU31" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV31" s="8">
+        <v>30</v>
+      </c>
+      <c r="AW31" s="62">
+        <v>64</v>
+      </c>
+      <c r="AX31" s="62">
+        <v>56</v>
+      </c>
+      <c r="AY31" s="62">
+        <v>3610</v>
+      </c>
+      <c r="AZ31" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" ht="15.75" thickBot="1">
       <c r="A32" s="24" t="s">
         <v>45</v>
       </c>
@@ -5054,8 +6200,38 @@
       <c r="AO32" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ32" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR32" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS32" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT32" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>31</v>
+      </c>
+      <c r="AW32" s="62">
+        <v>61</v>
+      </c>
+      <c r="AX32" s="62">
+        <v>54</v>
+      </c>
+      <c r="AY32" s="62">
+        <v>2650</v>
+      </c>
+      <c r="AZ32" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" ht="15.75" thickBot="1">
       <c r="A33" s="24" t="s">
         <v>46</v>
       </c>
@@ -5140,8 +6316,38 @@
       <c r="AO33" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR33" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS33" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT33" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU33" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV33" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW33" s="62">
+        <v>60</v>
+      </c>
+      <c r="AX33" s="62">
+        <v>51</v>
+      </c>
+      <c r="AY33" s="62">
+        <v>2350</v>
+      </c>
+      <c r="AZ33" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" ht="15.75" thickBot="1">
       <c r="A34" s="27" t="s">
         <v>47</v>
       </c>
@@ -5226,8 +6432,38 @@
       <c r="AO34" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ34" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR34" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS34" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT34" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU34" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV34" s="8">
+        <v>33</v>
+      </c>
+      <c r="AW34" s="62">
+        <v>66</v>
+      </c>
+      <c r="AX34" s="62">
+        <v>57</v>
+      </c>
+      <c r="AY34" s="62">
+        <v>3230</v>
+      </c>
+      <c r="AZ34" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" ht="15.75" thickBot="1">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -5310,8 +6546,38 @@
       <c r="AO35" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ35" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR35" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS35" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT35" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU35" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV35" s="8">
+        <v>34</v>
+      </c>
+      <c r="AW35" s="62">
+        <v>61</v>
+      </c>
+      <c r="AX35" s="62">
+        <v>52</v>
+      </c>
+      <c r="AY35" s="62">
+        <v>3110</v>
+      </c>
+      <c r="AZ35" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" ht="15.75" thickBot="1">
       <c r="A36" s="24" t="s">
         <v>49</v>
       </c>
@@ -5394,8 +6660,38 @@
       <c r="AO36" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ36" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR36" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS36" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT36" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU36" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV36" s="8">
+        <v>35</v>
+      </c>
+      <c r="AW36" s="62">
+        <v>68</v>
+      </c>
+      <c r="AX36" s="62">
+        <v>58</v>
+      </c>
+      <c r="AY36" s="62">
+        <v>3860</v>
+      </c>
+      <c r="AZ36" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" ht="15.75" thickBot="1">
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
@@ -5454,8 +6750,38 @@
         <v>111</v>
       </c>
       <c r="AF37" s="10"/>
-    </row>
-    <row r="38" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ37" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR37" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS37" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT37" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU37" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV37" s="8">
+        <v>36</v>
+      </c>
+      <c r="AW37" s="62">
+        <v>72</v>
+      </c>
+      <c r="AX37" s="62">
+        <v>65</v>
+      </c>
+      <c r="AY37" s="62">
+        <v>3750</v>
+      </c>
+      <c r="AZ37" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" ht="15.75" thickBot="1">
       <c r="A38" s="26" t="s">
         <v>51</v>
       </c>
@@ -5514,8 +6840,38 @@
         <v>111</v>
       </c>
       <c r="AF38" s="39"/>
-    </row>
-    <row r="39" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ38" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR38" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS38" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT38" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU38" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV38" s="8">
+        <v>37</v>
+      </c>
+      <c r="AW38" s="62">
+        <v>64</v>
+      </c>
+      <c r="AX38" s="62">
+        <v>55</v>
+      </c>
+      <c r="AY38" s="62">
+        <v>3160</v>
+      </c>
+      <c r="AZ38" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" ht="15.75" thickBot="1">
       <c r="A39" s="26" t="s">
         <v>52</v>
       </c>
@@ -5574,8 +6930,38 @@
         <v>111</v>
       </c>
       <c r="AF39" s="39"/>
-    </row>
-    <row r="40" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ39" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR39" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS39" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT39" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU39" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV39" s="8">
+        <v>38</v>
+      </c>
+      <c r="AW39" s="62">
+        <v>69</v>
+      </c>
+      <c r="AX39" s="62">
+        <v>59</v>
+      </c>
+      <c r="AY39" s="62">
+        <v>3390</v>
+      </c>
+      <c r="AZ39" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" ht="15.75" thickBot="1">
       <c r="A40" s="26" t="s">
         <v>53</v>
       </c>
@@ -5636,8 +7022,38 @@
       <c r="AF40" s="38">
         <v>24.701057630000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ40" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR40" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS40" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT40" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU40" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV40" s="8">
+        <v>39</v>
+      </c>
+      <c r="AW40" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX40" s="62">
+        <v>59</v>
+      </c>
+      <c r="AY40" s="62">
+        <v>4080</v>
+      </c>
+      <c r="AZ40" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" ht="15.75" thickBot="1">
       <c r="A41" s="26" t="s">
         <v>54</v>
       </c>
@@ -5696,8 +7112,38 @@
         <v>111</v>
       </c>
       <c r="AF41" s="40"/>
-    </row>
-    <row r="42" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ41" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR41" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS41" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT41" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU41" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV41" s="8">
+        <v>40</v>
+      </c>
+      <c r="AW41" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX41" s="62">
+        <v>58</v>
+      </c>
+      <c r="AY41" s="62">
+        <v>3690</v>
+      </c>
+      <c r="AZ41" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" ht="15.75" thickBot="1">
       <c r="A42" s="26" t="s">
         <v>55</v>
       </c>
@@ -5756,8 +7202,38 @@
         <v>111</v>
       </c>
       <c r="AF42" s="44"/>
-    </row>
-    <row r="43" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ42" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR42" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS42" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT42" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU42" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV42" s="8">
+        <v>41</v>
+      </c>
+      <c r="AW42" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX42" s="62">
+        <v>58</v>
+      </c>
+      <c r="AY42" s="62">
+        <v>3240</v>
+      </c>
+      <c r="AZ42" s="61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" ht="15.75" thickBot="1">
       <c r="A43" s="24" t="s">
         <v>56</v>
       </c>
@@ -5816,8 +7292,38 @@
         <v>111</v>
       </c>
       <c r="AF43" s="10"/>
-    </row>
-    <row r="44" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ43" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR43" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS43" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT43" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU43" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV43" s="8">
+        <v>42</v>
+      </c>
+      <c r="AW43" s="62">
+        <v>65</v>
+      </c>
+      <c r="AX43" s="62">
+        <v>55</v>
+      </c>
+      <c r="AY43" s="62">
+        <v>4130</v>
+      </c>
+      <c r="AZ43" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" ht="15.75" thickBot="1">
       <c r="A44" s="24" t="s">
         <v>57</v>
       </c>
@@ -5876,8 +7382,38 @@
         <v>111</v>
       </c>
       <c r="AF44" s="10"/>
-    </row>
-    <row r="45" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ44" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR44" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS44" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT44" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU44" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV44" s="8">
+        <v>43</v>
+      </c>
+      <c r="AW44" s="62">
+        <v>67</v>
+      </c>
+      <c r="AX44" s="62">
+        <v>58</v>
+      </c>
+      <c r="AY44" s="62">
+        <v>3560</v>
+      </c>
+      <c r="AZ44" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" ht="15.75" thickBot="1">
       <c r="A45" s="24" t="s">
         <v>58</v>
       </c>
@@ -5936,8 +7472,38 @@
         <v>111</v>
       </c>
       <c r="AF45" s="10"/>
-    </row>
-    <row r="46" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR45" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS45" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT45" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU45" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV45" s="8">
+        <v>44</v>
+      </c>
+      <c r="AW45" s="62">
+        <v>62</v>
+      </c>
+      <c r="AX45" s="62">
+        <v>52</v>
+      </c>
+      <c r="AY45" s="62">
+        <v>3870</v>
+      </c>
+      <c r="AZ45" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" ht="15.75" thickBot="1">
       <c r="A46" s="24" t="s">
         <v>59</v>
       </c>
@@ -5996,8 +7562,38 @@
         <v>111</v>
       </c>
       <c r="AF46" s="10"/>
-    </row>
-    <row r="47" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ46" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR46" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS46" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT46" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU46" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV46" s="8">
+        <v>45</v>
+      </c>
+      <c r="AW46" s="62">
+        <v>77</v>
+      </c>
+      <c r="AX46" s="62">
+        <v>64</v>
+      </c>
+      <c r="AY46" s="62">
+        <v>6500</v>
+      </c>
+      <c r="AZ46" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" ht="15.75" thickBot="1">
       <c r="A47" s="28" t="s">
         <v>60</v>
       </c>
@@ -6056,8 +7652,38 @@
         <v>111</v>
       </c>
       <c r="AF47" s="10"/>
-    </row>
-    <row r="48" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ47" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR47" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS47" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT47" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU47" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV47" s="8">
+        <v>46</v>
+      </c>
+      <c r="AW47" s="62">
+        <v>70</v>
+      </c>
+      <c r="AX47" s="62">
+        <v>61</v>
+      </c>
+      <c r="AY47" s="62">
+        <v>4680</v>
+      </c>
+      <c r="AZ47" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" ht="15.75" thickBot="1">
       <c r="A48" s="24" t="s">
         <v>61</v>
       </c>
@@ -6116,8 +7742,38 @@
         <v>111</v>
       </c>
       <c r="AF48" s="10"/>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ48" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR48" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS48" s="17">
+        <v>2007</v>
+      </c>
+      <c r="AT48" s="17">
+        <v>12</v>
+      </c>
+      <c r="AU48" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV48" s="8">
+        <v>47</v>
+      </c>
+      <c r="AW48" s="62">
+        <v>63</v>
+      </c>
+      <c r="AX48" s="62">
+        <v>53</v>
+      </c>
+      <c r="AY48" s="62">
+        <v>4390</v>
+      </c>
+      <c r="AZ48" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" ht="15.75" thickBot="1">
       <c r="A49" s="24" t="s">
         <v>62</v>
       </c>
@@ -6176,8 +7832,38 @@
         <v>111</v>
       </c>
       <c r="AF49" s="10"/>
-    </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ49" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR49" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS49" s="19">
+        <v>2007</v>
+      </c>
+      <c r="AT49" s="19">
+        <v>12</v>
+      </c>
+      <c r="AU49" s="19">
+        <v>18</v>
+      </c>
+      <c r="AV49" s="13">
+        <v>48</v>
+      </c>
+      <c r="AW49" s="62">
+        <v>63</v>
+      </c>
+      <c r="AX49" s="62">
+        <v>55.5</v>
+      </c>
+      <c r="AY49" s="62">
+        <v>2780</v>
+      </c>
+      <c r="AZ49" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" ht="15.75" thickBot="1">
       <c r="A50" s="26" t="s">
         <v>63</v>
       </c>
@@ -6238,8 +7924,20 @@
       <c r="AF50" s="14">
         <v>26.794814809999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW50" s="62">
+        <v>65</v>
+      </c>
+      <c r="AX50" s="62">
+        <v>56</v>
+      </c>
+      <c r="AY50" s="62">
+        <v>3680</v>
+      </c>
+      <c r="AZ50" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" ht="15.75" thickBot="1">
       <c r="A51" s="26" t="s">
         <v>64</v>
       </c>
@@ -6298,8 +7996,20 @@
         <v>111</v>
       </c>
       <c r="AF51" s="10"/>
-    </row>
-    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW51" s="62">
+        <v>65</v>
+      </c>
+      <c r="AX51" s="62">
+        <v>55</v>
+      </c>
+      <c r="AY51" s="62">
+        <v>3650</v>
+      </c>
+      <c r="AZ51" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" ht="15.75" thickBot="1">
       <c r="A52" s="26" t="s">
         <v>65</v>
       </c>
@@ -6359,7 +8069,7 @@
       </c>
       <c r="AF52" s="10"/>
     </row>
-    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" ht="15.75" thickBot="1">
       <c r="A53" s="26" t="s">
         <v>66</v>
       </c>
@@ -6421,7 +8131,7 @@
         <v>3.9420000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" ht="15.75" thickBot="1">
       <c r="W54" s="6" t="s">
         <v>158</v>
       </c>
@@ -6453,7 +8163,7 @@
         <v>15.678333329999999</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" ht="15.75" thickBot="1">
       <c r="W55" s="6" t="s">
         <v>159</v>
       </c>
@@ -6485,7 +8195,7 @@
         <v>5.4319230770000004</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" ht="15.75" thickBot="1">
       <c r="W56" s="6" t="s">
         <v>160</v>
       </c>
@@ -6517,7 +8227,7 @@
         <v>13.31575758</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" ht="15.75" thickBot="1">
       <c r="W57" s="29" t="s">
         <v>161</v>
       </c>
@@ -6549,7 +8259,7 @@
         <v>5.2446153850000004</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
       <c r="W58" s="33" t="s">
         <v>162</v>
       </c>
@@ -6581,7 +8291,7 @@
         <v>4.6724137929999996</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" ht="15.75" thickBot="1">
       <c r="W59" s="6" t="s">
         <v>164</v>
       </c>
@@ -6613,7 +8323,7 @@
         <v>3.3411764709999998</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" ht="15.75" thickBot="1">
       <c r="W60" s="6" t="s">
         <v>165</v>
       </c>
@@ -6645,7 +8355,7 @@
         <v>12.77862745</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:52" ht="15.75" thickBot="1">
       <c r="W61" s="6" t="s">
         <v>166</v>
       </c>
@@ -6677,7 +8387,7 @@
         <v>4.1978378379999999</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" ht="15.75" thickBot="1">
       <c r="W62" s="6" t="s">
         <v>167</v>
       </c>
@@ -6709,7 +8419,7 @@
         <v>15.97384615</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:52" ht="15.75" thickBot="1">
       <c r="W63" s="6" t="s">
         <v>168</v>
       </c>
@@ -6741,7 +8451,7 @@
         <v>21.090434779999999</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:52" ht="15.75" thickBot="1">
       <c r="W64" s="6" t="s">
         <v>169</v>
       </c>
@@ -6773,7 +8483,7 @@
         <v>22.203703699999998</v>
       </c>
     </row>
-    <row r="65" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="23:32" ht="15.75" thickBot="1">
       <c r="W65" s="6" t="s">
         <v>170</v>
       </c>
@@ -6805,7 +8515,7 @@
         <v>4.494736842</v>
       </c>
     </row>
-    <row r="66" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="23:32" ht="15.75" thickBot="1">
       <c r="W66" s="6" t="s">
         <v>171</v>
       </c>
@@ -6837,7 +8547,7 @@
         <v>6.6951999999999998</v>
       </c>
     </row>
-    <row r="67" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="23:32" ht="15.75" thickBot="1">
       <c r="W67" s="6" t="s">
         <v>172</v>
       </c>
@@ -6869,7 +8579,7 @@
         <v>10.616086960000001</v>
       </c>
     </row>
-    <row r="68" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="23:32" ht="15.75" thickBot="1">
       <c r="W68" s="6" t="s">
         <v>173</v>
       </c>
@@ -6901,7 +8611,7 @@
         <v>29.117391300000001</v>
       </c>
     </row>
-    <row r="69" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="23:32" ht="15.75" thickBot="1">
       <c r="W69" s="6" t="s">
         <v>174</v>
       </c>
@@ -6933,7 +8643,7 @@
         <v>5.0277777779999999</v>
       </c>
     </row>
-    <row r="70" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="23:32" ht="15.75" thickBot="1">
       <c r="W70" s="6" t="s">
         <v>175</v>
       </c>
@@ -6965,7 +8675,7 @@
         <v>5.5581818180000004</v>
       </c>
     </row>
-    <row r="71" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="23:32" ht="15.75" thickBot="1">
       <c r="W71" s="6" t="s">
         <v>176</v>
       </c>
@@ -6997,7 +8707,7 @@
         <v>6.1661904759999997</v>
       </c>
     </row>
-    <row r="72" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="23:32" ht="15.75" thickBot="1">
       <c r="W72" s="6" t="s">
         <v>177</v>
       </c>
@@ -7029,7 +8739,7 @@
         <v>26.291481480000002</v>
       </c>
     </row>
-    <row r="73" spans="23:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="23:32" ht="15.75" thickBot="1">
       <c r="W73" s="47" t="s">
         <v>178</v>
       </c>
@@ -7061,7 +8771,7 @@
         <v>4.234</v>
       </c>
     </row>
-    <row r="74" spans="23:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="23:32" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7070,19 +8780,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P192"/>
+  <dimension ref="A1:P240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:N90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -7126,7 +8837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -7160,6 +8871,10 @@
       <c r="K2" s="25" t="s">
         <v>217</v>
       </c>
+      <c r="L2">
+        <f>COUNTIF(J2:J192, "&lt;&gt;NA")</f>
+        <v>95</v>
+      </c>
       <c r="N2" t="s">
         <v>72</v>
       </c>
@@ -7170,7 +8885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -7204,6 +8919,10 @@
       <c r="K3" s="25" t="s">
         <v>217</v>
       </c>
+      <c r="L3">
+        <f>L2/191</f>
+        <v>0.49738219895287961</v>
+      </c>
       <c r="N3" t="s">
         <v>74</v>
       </c>
@@ -7214,7 +8933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -7258,7 +8977,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -7302,7 +9021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -7346,7 +9065,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -7390,7 +9109,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -7434,7 +9153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7478,7 +9197,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -7522,7 +9241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -7566,7 +9285,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -7610,7 +9329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -7654,7 +9373,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -7698,7 +9417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -7742,7 +9461,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -7786,7 +9505,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -7830,7 +9549,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -7874,7 +9593,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -7918,7 +9637,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -7962,7 +9681,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -8006,7 +9725,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -8050,7 +9769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -8094,7 +9813,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -8138,7 +9857,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -8182,7 +9901,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -8226,7 +9945,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -8270,7 +9989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>219</v>
       </c>
@@ -8314,7 +10033,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -8358,7 +10077,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -8402,7 +10121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>219</v>
       </c>
@@ -8446,7 +10165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -8490,7 +10209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>219</v>
       </c>
@@ -8534,7 +10253,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -8578,7 +10297,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -8622,7 +10341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -8666,7 +10385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -8710,7 +10429,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>219</v>
       </c>
@@ -8754,7 +10473,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -8798,7 +10517,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -8842,7 +10561,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -8886,7 +10605,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>219</v>
       </c>
@@ -8930,7 +10649,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -8974,7 +10693,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -9018,7 +10737,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -9062,7 +10781,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -9106,7 +10825,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -9150,7 +10869,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -9194,7 +10913,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -9238,7 +10957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -9282,7 +11001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>219</v>
       </c>
@@ -9326,7 +11045,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>219</v>
       </c>
@@ -9370,7 +11089,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -9414,7 +11133,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -9458,7 +11177,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -9502,7 +11221,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -9546,7 +11265,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -9590,7 +11309,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -9634,7 +11353,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -9678,7 +11397,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -9722,7 +11441,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -9766,7 +11485,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>218</v>
       </c>
@@ -9810,7 +11529,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>218</v>
       </c>
@@ -9854,7 +11573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>218</v>
       </c>
@@ -9898,7 +11617,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>218</v>
       </c>
@@ -9942,7 +11661,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -9986,7 +11705,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -10030,7 +11749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -10074,7 +11793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -10118,7 +11837,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -10162,7 +11881,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -10206,7 +11925,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -10250,7 +11969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -10294,7 +12013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -10338,7 +12057,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -10382,7 +12101,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>218</v>
       </c>
@@ -10426,7 +12145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -10470,7 +12189,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -10514,7 +12233,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>218</v>
       </c>
@@ -10558,7 +12277,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -10602,7 +12321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>218</v>
       </c>
@@ -10646,7 +12365,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -10690,7 +12409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -10734,7 +12453,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>218</v>
       </c>
@@ -10778,7 +12497,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>218</v>
       </c>
@@ -10822,7 +12541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -10866,7 +12585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -10910,7 +12629,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -10954,7 +12673,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>218</v>
       </c>
@@ -10998,7 +12717,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -11042,7 +12761,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -11086,7 +12805,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -11130,7 +12849,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -11174,7 +12893,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -11218,7 +12937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -11262,7 +12981,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>218</v>
       </c>
@@ -11306,7 +13025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>218</v>
       </c>
@@ -11350,7 +13069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>218</v>
       </c>
@@ -11394,7 +13113,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -11438,7 +13157,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>218</v>
       </c>
@@ -11482,7 +13201,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -11526,7 +13245,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>218</v>
       </c>
@@ -11570,7 +13289,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -11614,7 +13333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -11658,7 +13377,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>218</v>
       </c>
@@ -11702,7 +13421,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -11746,7 +13465,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -11790,7 +13509,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>218</v>
       </c>
@@ -11834,7 +13553,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -11878,7 +13597,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -11922,7 +13641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -11966,7 +13685,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>218</v>
       </c>
@@ -12010,7 +13729,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>218</v>
       </c>
@@ -12054,7 +13773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>218</v>
       </c>
@@ -12098,7 +13817,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -12142,7 +13861,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>218</v>
       </c>
@@ -12186,7 +13905,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>218</v>
       </c>
@@ -12230,7 +13949,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -12274,7 +13993,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>218</v>
       </c>
@@ -12318,7 +14037,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -12362,7 +14081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>218</v>
       </c>
@@ -12406,7 +14125,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -12450,7 +14169,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>218</v>
       </c>
@@ -12494,7 +14213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -12538,7 +14257,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -12582,7 +14301,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>218</v>
       </c>
@@ -12626,7 +14345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -12670,7 +14389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
         <v>218</v>
       </c>
@@ -12714,7 +14433,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -12758,7 +14477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
         <v>218</v>
       </c>
@@ -12802,7 +14521,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>218</v>
       </c>
@@ -12846,7 +14565,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -12890,7 +14609,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>218</v>
       </c>
@@ -12934,7 +14653,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -12978,7 +14697,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>218</v>
       </c>
@@ -13022,7 +14741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -13066,7 +14785,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -13110,7 +14829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -13154,7 +14873,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>218</v>
       </c>
@@ -13198,7 +14917,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>218</v>
       </c>
@@ -13242,7 +14961,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>218</v>
       </c>
@@ -13286,7 +15005,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>218</v>
       </c>
@@ -13330,7 +15049,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>218</v>
       </c>
@@ -13374,7 +15093,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
         <v>218</v>
       </c>
@@ -13418,7 +15137,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>218</v>
       </c>
@@ -13462,7 +15181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -13506,7 +15225,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>218</v>
       </c>
@@ -13550,7 +15269,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
         <v>218</v>
       </c>
@@ -13594,7 +15313,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>218</v>
       </c>
@@ -13638,7 +15357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
         <v>218</v>
       </c>
@@ -13682,7 +15401,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -13726,7 +15445,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -13770,7 +15489,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>218</v>
       </c>
@@ -13814,7 +15533,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
         <v>218</v>
       </c>
@@ -13858,7 +15577,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>218</v>
       </c>
@@ -13902,7 +15621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
         <v>218</v>
       </c>
@@ -13946,7 +15665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>220</v>
       </c>
@@ -13990,7 +15709,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -14034,7 +15753,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>220</v>
       </c>
@@ -14078,7 +15797,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -14122,7 +15841,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>220</v>
       </c>
@@ -14166,7 +15885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
         <v>220</v>
       </c>
@@ -14210,7 +15929,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>220</v>
       </c>
@@ -14254,7 +15973,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
         <v>220</v>
       </c>
@@ -14298,7 +16017,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>220</v>
       </c>
@@ -14342,7 +16061,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
         <v>220</v>
       </c>
@@ -14386,7 +16105,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -14430,7 +16149,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
         <v>220</v>
       </c>
@@ -14474,7 +16193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
         <v>220</v>
       </c>
@@ -14518,7 +16237,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
         <v>220</v>
       </c>
@@ -14562,7 +16281,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" t="s">
         <v>220</v>
       </c>
@@ -14606,7 +16325,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -14640,8 +16359,17 @@
       <c r="K172" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>254</v>
+      </c>
+      <c r="O172" t="s">
+        <v>250</v>
+      </c>
+      <c r="P172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>220</v>
       </c>
@@ -14675,8 +16403,17 @@
       <c r="K173" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>257</v>
+      </c>
+      <c r="O173" t="s">
+        <v>250</v>
+      </c>
+      <c r="P173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -14710,8 +16447,17 @@
       <c r="K174" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>260</v>
+      </c>
+      <c r="O174" t="s">
+        <v>250</v>
+      </c>
+      <c r="P174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -14745,8 +16491,17 @@
       <c r="K175" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>262</v>
+      </c>
+      <c r="O175" t="s">
+        <v>250</v>
+      </c>
+      <c r="P175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" t="s">
         <v>220</v>
       </c>
@@ -14780,8 +16535,17 @@
       <c r="K176" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>265</v>
+      </c>
+      <c r="O176" t="s">
+        <v>250</v>
+      </c>
+      <c r="P176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" t="s">
         <v>220</v>
       </c>
@@ -14815,8 +16579,17 @@
       <c r="K177" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>266</v>
+      </c>
+      <c r="O177" t="s">
+        <v>250</v>
+      </c>
+      <c r="P177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" t="s">
         <v>220</v>
       </c>
@@ -14850,8 +16623,17 @@
       <c r="K178" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>268</v>
+      </c>
+      <c r="O178" t="s">
+        <v>250</v>
+      </c>
+      <c r="P178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" t="s">
         <v>220</v>
       </c>
@@ -14885,8 +16667,17 @@
       <c r="K179" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>273</v>
+      </c>
+      <c r="O179" t="s">
+        <v>250</v>
+      </c>
+      <c r="P179" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" t="s">
         <v>220</v>
       </c>
@@ -14903,13 +16694,13 @@
         <v>25</v>
       </c>
       <c r="F180">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G180">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>1400</v>
+        <v>1740</v>
       </c>
       <c r="I180" t="s">
         <v>38</v>
@@ -14920,8 +16711,17 @@
       <c r="K180" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>274</v>
+      </c>
+      <c r="O180" t="s">
+        <v>250</v>
+      </c>
+      <c r="P180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -14938,13 +16738,13 @@
         <v>26</v>
       </c>
       <c r="F181">
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="G181">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H181">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="I181" t="s">
         <v>38</v>
@@ -14955,8 +16755,17 @@
       <c r="K181" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>275</v>
+      </c>
+      <c r="O181" t="s">
+        <v>250</v>
+      </c>
+      <c r="P181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" t="s">
         <v>220</v>
       </c>
@@ -14973,16 +16782,16 @@
         <v>27</v>
       </c>
       <c r="F182">
-        <v>55.5</v>
+        <v>50</v>
       </c>
       <c r="G182">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1730</v>
+        <v>1510</v>
       </c>
       <c r="I182" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J182" t="s">
         <v>217</v>
@@ -14990,8 +16799,17 @@
       <c r="K182" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>278</v>
+      </c>
+      <c r="O182" t="s">
+        <v>250</v>
+      </c>
+      <c r="P182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -15008,16 +16826,16 @@
         <v>28</v>
       </c>
       <c r="F183">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G183">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>1510</v>
+        <v>1400</v>
       </c>
       <c r="I183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J183" t="s">
         <v>217</v>
@@ -15025,8 +16843,17 @@
       <c r="K183" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>279</v>
+      </c>
+      <c r="O183" t="s">
+        <v>250</v>
+      </c>
+      <c r="P183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" t="s">
         <v>220</v>
       </c>
@@ -15043,16 +16870,16 @@
         <v>29</v>
       </c>
       <c r="F184">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G184">
-        <v>46</v>
+        <v>41.5</v>
       </c>
       <c r="H184">
-        <v>1400</v>
+        <v>1070</v>
       </c>
       <c r="I184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J184" t="s">
         <v>217</v>
@@ -15060,8 +16887,17 @@
       <c r="K184" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>282</v>
+      </c>
+      <c r="O184" t="s">
+        <v>250</v>
+      </c>
+      <c r="P184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
       <c r="A185" t="s">
         <v>220</v>
       </c>
@@ -15078,16 +16914,16 @@
         <v>30</v>
       </c>
       <c r="F185">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G185">
-        <v>41.5</v>
+        <v>39.5</v>
       </c>
       <c r="H185">
-        <v>1070</v>
+        <v>1390</v>
       </c>
       <c r="I185" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J185" t="s">
         <v>217</v>
@@ -15095,8 +16931,17 @@
       <c r="K185" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N185" t="s">
+        <v>285</v>
+      </c>
+      <c r="O185" t="s">
+        <v>250</v>
+      </c>
+      <c r="P185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
       <c r="A186" t="s">
         <v>220</v>
       </c>
@@ -15113,16 +16958,16 @@
         <v>31</v>
       </c>
       <c r="F186">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G186">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="H186">
-        <v>1390</v>
+        <v>1190</v>
       </c>
       <c r="I186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J186" t="s">
         <v>217</v>
@@ -15130,8 +16975,17 @@
       <c r="K186" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>286</v>
+      </c>
+      <c r="O186" t="s">
+        <v>250</v>
+      </c>
+      <c r="P186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
       <c r="A187" t="s">
         <v>220</v>
       </c>
@@ -15148,16 +17002,16 @@
         <v>32</v>
       </c>
       <c r="F187">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="G187">
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="H187">
-        <v>1190</v>
+        <v>1410</v>
       </c>
       <c r="I187" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J187" t="s">
         <v>217</v>
@@ -15165,8 +17019,17 @@
       <c r="K187" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>287</v>
+      </c>
+      <c r="O187" t="s">
+        <v>250</v>
+      </c>
+      <c r="P187" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>220</v>
       </c>
@@ -15183,13 +17046,13 @@
         <v>33</v>
       </c>
       <c r="F188">
-        <v>47.5</v>
+        <v>43</v>
       </c>
       <c r="G188">
-        <v>40.5</v>
+        <v>37.5</v>
       </c>
       <c r="H188">
-        <v>1410</v>
+        <v>900</v>
       </c>
       <c r="I188" t="s">
         <v>38</v>
@@ -15200,8 +17063,17 @@
       <c r="K188" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>288</v>
+      </c>
+      <c r="O188" t="s">
+        <v>250</v>
+      </c>
+      <c r="P188" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -15218,13 +17090,13 @@
         <v>34</v>
       </c>
       <c r="F189">
-        <v>43</v>
+        <v>44.5</v>
       </c>
       <c r="G189">
         <v>37.5</v>
       </c>
       <c r="H189">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="I189" t="s">
         <v>38</v>
@@ -15235,8 +17107,17 @@
       <c r="K189" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>291</v>
+      </c>
+      <c r="O189" t="s">
+        <v>250</v>
+      </c>
+      <c r="P189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -15253,13 +17134,13 @@
         <v>35</v>
       </c>
       <c r="F190">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="G190">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="H190">
-        <v>890</v>
+        <v>830</v>
       </c>
       <c r="I190" t="s">
         <v>38</v>
@@ -15270,8 +17151,17 @@
       <c r="K190" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>292</v>
+      </c>
+      <c r="O190" t="s">
+        <v>250</v>
+      </c>
+      <c r="P190" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -15288,13 +17178,13 @@
         <v>36</v>
       </c>
       <c r="F191">
-        <v>45.5</v>
+        <v>40</v>
       </c>
       <c r="G191">
-        <v>39.5</v>
+        <v>34.5</v>
       </c>
       <c r="H191">
-        <v>830</v>
+        <v>960</v>
       </c>
       <c r="I191" t="s">
         <v>38</v>
@@ -15305,8 +17195,17 @@
       <c r="K191" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>296</v>
+      </c>
+      <c r="O191" t="s">
+        <v>250</v>
+      </c>
+      <c r="P191" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -15323,21 +17222,1827 @@
         <v>37</v>
       </c>
       <c r="F192">
+        <v>39.5</v>
+      </c>
+      <c r="G192">
+        <v>34</v>
+      </c>
+      <c r="H192">
+        <v>710</v>
+      </c>
+      <c r="I192" t="s">
+        <v>36</v>
+      </c>
+      <c r="J192" t="s">
+        <v>217</v>
+      </c>
+      <c r="K192" t="s">
+        <v>217</v>
+      </c>
+      <c r="N192" t="s">
+        <v>298</v>
+      </c>
+      <c r="O192" t="s">
+        <v>250</v>
+      </c>
+      <c r="P192" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" t="s">
+        <v>254</v>
+      </c>
+      <c r="C193" t="s">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>2007</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>83</v>
+      </c>
+      <c r="G193">
+        <v>72</v>
+      </c>
+      <c r="H193">
+        <v>7940</v>
+      </c>
+      <c r="I193" t="s">
+        <v>38</v>
+      </c>
+      <c r="J193" t="s">
+        <v>217</v>
+      </c>
+      <c r="K193" t="s">
+        <v>217</v>
+      </c>
+      <c r="N193" t="s">
+        <v>300</v>
+      </c>
+      <c r="O193" t="s">
+        <v>250</v>
+      </c>
+      <c r="P193" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>218</v>
+      </c>
+      <c r="B194" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194" t="s">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>2007</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>76</v>
+      </c>
+      <c r="G194">
+        <v>67</v>
+      </c>
+      <c r="H194">
+        <v>6240</v>
+      </c>
+      <c r="I194" t="s">
+        <v>38</v>
+      </c>
+      <c r="J194" t="s">
+        <v>217</v>
+      </c>
+      <c r="K194" t="s">
+        <v>217</v>
+      </c>
+      <c r="N194" t="s">
+        <v>276</v>
+      </c>
+      <c r="O194" t="s">
+        <v>250</v>
+      </c>
+      <c r="P194" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>218</v>
+      </c>
+      <c r="B195" t="s">
+        <v>257</v>
+      </c>
+      <c r="C195" t="s">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>2007</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>75</v>
+      </c>
+      <c r="G195">
+        <v>64</v>
+      </c>
+      <c r="H195">
+        <v>5500</v>
+      </c>
+      <c r="I195" t="s">
+        <v>38</v>
+      </c>
+      <c r="J195" t="s">
+        <v>217</v>
+      </c>
+      <c r="K195" t="s">
+        <v>217</v>
+      </c>
+      <c r="N195" t="s">
+        <v>280</v>
+      </c>
+      <c r="O195" t="s">
+        <v>250</v>
+      </c>
+      <c r="P195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196" t="s">
+        <v>258</v>
+      </c>
+      <c r="C196" t="s">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>2007</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>83</v>
+      </c>
+      <c r="G196">
+        <v>71</v>
+      </c>
+      <c r="H196">
+        <v>7620</v>
+      </c>
+      <c r="I196" t="s">
+        <v>38</v>
+      </c>
+      <c r="J196" t="s">
+        <v>217</v>
+      </c>
+      <c r="K196" t="s">
+        <v>217</v>
+      </c>
+      <c r="N196" t="s">
+        <v>293</v>
+      </c>
+      <c r="O196" t="s">
+        <v>250</v>
+      </c>
+      <c r="P196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" t="s">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>2007</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>71</v>
+      </c>
+      <c r="G197">
+        <v>62</v>
+      </c>
+      <c r="H197">
+        <v>4410</v>
+      </c>
+      <c r="I197" t="s">
+        <v>38</v>
+      </c>
+      <c r="J197" t="s">
+        <v>217</v>
+      </c>
+      <c r="K197" t="s">
+        <v>217</v>
+      </c>
+      <c r="N197" t="s">
+        <v>259</v>
+      </c>
+      <c r="O197" t="s">
+        <v>250</v>
+      </c>
+      <c r="P197" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" t="s">
+        <v>260</v>
+      </c>
+      <c r="C198" t="s">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>2007</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>70</v>
+      </c>
+      <c r="G198">
+        <v>61</v>
+      </c>
+      <c r="H198">
+        <v>4560</v>
+      </c>
+      <c r="I198" t="s">
+        <v>38</v>
+      </c>
+      <c r="J198" t="s">
+        <v>217</v>
+      </c>
+      <c r="K198" t="s">
+        <v>217</v>
+      </c>
+      <c r="N198" t="s">
+        <v>289</v>
+      </c>
+      <c r="O198" t="s">
+        <v>250</v>
+      </c>
+      <c r="P198" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" t="s">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>2007</v>
+      </c>
+      <c r="E199">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>69</v>
+      </c>
+      <c r="G199">
+        <v>60</v>
+      </c>
+      <c r="H199">
+        <v>5100</v>
+      </c>
+      <c r="I199" t="s">
+        <v>38</v>
+      </c>
+      <c r="J199" t="s">
+        <v>217</v>
+      </c>
+      <c r="K199" t="s">
+        <v>217</v>
+      </c>
+      <c r="N199" t="s">
+        <v>277</v>
+      </c>
+      <c r="O199" t="s">
+        <v>250</v>
+      </c>
+      <c r="P199" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200" t="s">
+        <v>262</v>
+      </c>
+      <c r="C200" t="s">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>2007</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>76</v>
+      </c>
+      <c r="G200">
+        <v>67</v>
+      </c>
+      <c r="H200">
+        <v>6650</v>
+      </c>
+      <c r="I200" t="s">
+        <v>38</v>
+      </c>
+      <c r="J200" t="s">
+        <v>217</v>
+      </c>
+      <c r="K200" t="s">
+        <v>217</v>
+      </c>
+      <c r="N200" t="s">
+        <v>281</v>
+      </c>
+      <c r="O200" t="s">
+        <v>250</v>
+      </c>
+      <c r="P200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C201" t="s">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>2007</v>
+      </c>
+      <c r="E201">
+        <v>9</v>
+      </c>
+      <c r="F201">
+        <v>68</v>
+      </c>
+      <c r="G201">
+        <v>60</v>
+      </c>
+      <c r="H201">
+        <v>3560</v>
+      </c>
+      <c r="I201" t="s">
+        <v>36</v>
+      </c>
+      <c r="J201" t="s">
+        <v>217</v>
+      </c>
+      <c r="K201" t="s">
+        <v>217</v>
+      </c>
+      <c r="N201" t="s">
+        <v>284</v>
+      </c>
+      <c r="O201" t="s">
+        <v>250</v>
+      </c>
+      <c r="P201" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C202" t="s">
+        <v>255</v>
+      </c>
+      <c r="D202">
+        <v>2007</v>
+      </c>
+      <c r="E202">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>70</v>
+      </c>
+      <c r="G202">
+        <v>62</v>
+      </c>
+      <c r="H202">
+        <v>3840</v>
+      </c>
+      <c r="I202" t="s">
+        <v>36</v>
+      </c>
+      <c r="J202" t="s">
+        <v>217</v>
+      </c>
+      <c r="K202" t="s">
+        <v>217</v>
+      </c>
+      <c r="N202" t="s">
+        <v>270</v>
+      </c>
+      <c r="O202" t="s">
+        <v>250</v>
+      </c>
+      <c r="P202" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" t="s">
+        <v>265</v>
+      </c>
+      <c r="C203" t="s">
+        <v>255</v>
+      </c>
+      <c r="D203">
+        <v>2007</v>
+      </c>
+      <c r="E203">
+        <v>11</v>
+      </c>
+      <c r="F203">
+        <v>68</v>
+      </c>
+      <c r="G203">
+        <v>57</v>
+      </c>
+      <c r="H203">
+        <v>3700</v>
+      </c>
+      <c r="I203" t="s">
+        <v>38</v>
+      </c>
+      <c r="J203" t="s">
+        <v>217</v>
+      </c>
+      <c r="K203" t="s">
+        <v>217</v>
+      </c>
+      <c r="N203" t="s">
+        <v>272</v>
+      </c>
+      <c r="O203" t="s">
+        <v>250</v>
+      </c>
+      <c r="P203" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D204">
+        <v>2007</v>
+      </c>
+      <c r="E204">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>64</v>
+      </c>
+      <c r="G204">
+        <v>54</v>
+      </c>
+      <c r="H204">
+        <v>4370</v>
+      </c>
+      <c r="I204" t="s">
+        <v>38</v>
+      </c>
+      <c r="J204" t="s">
+        <v>217</v>
+      </c>
+      <c r="K204" t="s">
+        <v>217</v>
+      </c>
+      <c r="N204" t="s">
+        <v>297</v>
+      </c>
+      <c r="O204" t="s">
+        <v>250</v>
+      </c>
+      <c r="P204" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" t="s">
+        <v>267</v>
+      </c>
+      <c r="C205" t="s">
+        <v>255</v>
+      </c>
+      <c r="D205">
+        <v>2007</v>
+      </c>
+      <c r="E205">
+        <v>13</v>
+      </c>
+      <c r="F205">
+        <v>66</v>
+      </c>
+      <c r="G205">
+        <v>59</v>
+      </c>
+      <c r="H205">
+        <v>3450</v>
+      </c>
+      <c r="I205" t="s">
+        <v>38</v>
+      </c>
+      <c r="J205" t="s">
+        <v>217</v>
+      </c>
+      <c r="K205" t="s">
+        <v>217</v>
+      </c>
+      <c r="N205" t="s">
+        <v>283</v>
+      </c>
+      <c r="O205" t="s">
+        <v>250</v>
+      </c>
+      <c r="P205" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" t="s">
+        <v>268</v>
+      </c>
+      <c r="C206" t="s">
+        <v>255</v>
+      </c>
+      <c r="D206">
+        <v>2007</v>
+      </c>
+      <c r="E206">
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <v>70</v>
+      </c>
+      <c r="G206">
+        <v>61</v>
+      </c>
+      <c r="H206">
+        <v>3150</v>
+      </c>
+      <c r="I206" t="s">
+        <v>38</v>
+      </c>
+      <c r="J206" t="s">
+        <v>217</v>
+      </c>
+      <c r="K206" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" t="s">
+        <v>269</v>
+      </c>
+      <c r="C207" t="s">
+        <v>255</v>
+      </c>
+      <c r="D207">
+        <v>2007</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>60</v>
+      </c>
+      <c r="G207">
+        <v>52</v>
+      </c>
+      <c r="H207">
+        <v>2930</v>
+      </c>
+      <c r="I207" t="s">
+        <v>38</v>
+      </c>
+      <c r="J207" t="s">
+        <v>217</v>
+      </c>
+      <c r="K207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>218</v>
+      </c>
+      <c r="B208" t="s">
+        <v>270</v>
+      </c>
+      <c r="C208" t="s">
+        <v>255</v>
+      </c>
+      <c r="D208">
+        <v>2007</v>
+      </c>
+      <c r="E208">
+        <v>16</v>
+      </c>
+      <c r="F208">
+        <v>67</v>
+      </c>
+      <c r="G208">
+        <v>59</v>
+      </c>
+      <c r="H208">
+        <v>3690</v>
+      </c>
+      <c r="I208" t="s">
+        <v>38</v>
+      </c>
+      <c r="J208" t="s">
+        <v>217</v>
+      </c>
+      <c r="K208" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" t="s">
+        <v>255</v>
+      </c>
+      <c r="D209">
+        <v>2007</v>
+      </c>
+      <c r="E209">
+        <v>17</v>
+      </c>
+      <c r="F209">
+        <v>60</v>
+      </c>
+      <c r="G209">
+        <v>51</v>
+      </c>
+      <c r="H209">
+        <v>3600</v>
+      </c>
+      <c r="I209" t="s">
+        <v>38</v>
+      </c>
+      <c r="J209" t="s">
+        <v>217</v>
+      </c>
+      <c r="K209" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" t="s">
+        <v>255</v>
+      </c>
+      <c r="D210">
+        <v>2007</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>59</v>
+      </c>
+      <c r="G210">
+        <v>51</v>
+      </c>
+      <c r="H210">
+        <v>3100</v>
+      </c>
+      <c r="I210" t="s">
+        <v>38</v>
+      </c>
+      <c r="J210" t="s">
+        <v>217</v>
+      </c>
+      <c r="K210" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" t="s">
+        <v>273</v>
+      </c>
+      <c r="C211" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211">
+        <v>2007</v>
+      </c>
+      <c r="E211">
+        <v>19</v>
+      </c>
+      <c r="F211">
+        <v>70</v>
+      </c>
+      <c r="G211">
+        <v>61</v>
+      </c>
+      <c r="H211">
+        <v>4340</v>
+      </c>
+      <c r="I211" t="s">
+        <v>38</v>
+      </c>
+      <c r="J211" t="s">
+        <v>217</v>
+      </c>
+      <c r="K211" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>274</v>
+      </c>
+      <c r="C212" t="s">
+        <v>255</v>
+      </c>
+      <c r="D212">
+        <v>2007</v>
+      </c>
+      <c r="E212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>58</v>
+      </c>
+      <c r="G212">
+        <v>50.5</v>
+      </c>
+      <c r="H212">
+        <v>2860</v>
+      </c>
+      <c r="I212" t="s">
+        <v>38</v>
+      </c>
+      <c r="J212" t="s">
+        <v>217</v>
+      </c>
+      <c r="K212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" t="s">
+        <v>255</v>
+      </c>
+      <c r="D213">
+        <v>2007</v>
+      </c>
+      <c r="E213">
+        <v>21</v>
+      </c>
+      <c r="F213">
+        <v>75</v>
+      </c>
+      <c r="G213">
+        <v>65</v>
+      </c>
+      <c r="H213">
+        <v>4900</v>
+      </c>
+      <c r="I213" t="s">
+        <v>36</v>
+      </c>
+      <c r="J213" t="s">
+        <v>217</v>
+      </c>
+      <c r="K213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="s">
+        <v>276</v>
+      </c>
+      <c r="C214" t="s">
+        <v>255</v>
+      </c>
+      <c r="D214">
+        <v>2007</v>
+      </c>
+      <c r="E214">
+        <v>22</v>
+      </c>
+      <c r="F214">
+        <v>68</v>
+      </c>
+      <c r="G214">
+        <v>60</v>
+      </c>
+      <c r="H214">
+        <v>3580</v>
+      </c>
+      <c r="I214" t="s">
+        <v>36</v>
+      </c>
+      <c r="J214" t="s">
+        <v>217</v>
+      </c>
+      <c r="K214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" t="s">
+        <v>255</v>
+      </c>
+      <c r="D215">
+        <v>2007</v>
+      </c>
+      <c r="E215">
+        <v>23</v>
+      </c>
+      <c r="F215">
+        <v>62</v>
+      </c>
+      <c r="G215">
+        <v>53</v>
+      </c>
+      <c r="H215">
+        <v>3550</v>
+      </c>
+      <c r="I215" t="s">
+        <v>38</v>
+      </c>
+      <c r="J215" t="s">
+        <v>217</v>
+      </c>
+      <c r="K215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>278</v>
+      </c>
+      <c r="C216" t="s">
+        <v>255</v>
+      </c>
+      <c r="D216">
+        <v>2007</v>
+      </c>
+      <c r="E216">
+        <v>24</v>
+      </c>
+      <c r="F216">
+        <v>64</v>
+      </c>
+      <c r="G216">
+        <v>54</v>
+      </c>
+      <c r="H216">
+        <v>3060</v>
+      </c>
+      <c r="I216" t="s">
+        <v>38</v>
+      </c>
+      <c r="J216" t="s">
+        <v>217</v>
+      </c>
+      <c r="K216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" t="s">
+        <v>255</v>
+      </c>
+      <c r="D217">
+        <v>2007</v>
+      </c>
+      <c r="E217">
+        <v>25</v>
+      </c>
+      <c r="F217">
+        <v>64</v>
+      </c>
+      <c r="G217">
+        <v>55</v>
+      </c>
+      <c r="H217">
+        <v>3390</v>
+      </c>
+      <c r="I217" t="s">
+        <v>38</v>
+      </c>
+      <c r="J217" t="s">
+        <v>217</v>
+      </c>
+      <c r="K217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>280</v>
+      </c>
+      <c r="C218" t="s">
+        <v>255</v>
+      </c>
+      <c r="D218">
+        <v>2007</v>
+      </c>
+      <c r="E218">
+        <v>26</v>
+      </c>
+      <c r="F218">
+        <v>67</v>
+      </c>
+      <c r="G218">
+        <v>57</v>
+      </c>
+      <c r="H218">
+        <v>3560</v>
+      </c>
+      <c r="I218" t="s">
+        <v>38</v>
+      </c>
+      <c r="J218" t="s">
+        <v>217</v>
+      </c>
+      <c r="K218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>281</v>
+      </c>
+      <c r="C219" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219">
+        <v>2007</v>
+      </c>
+      <c r="E219">
+        <v>27</v>
+      </c>
+      <c r="F219">
+        <v>60</v>
+      </c>
+      <c r="G219">
+        <v>53</v>
+      </c>
+      <c r="H219">
+        <v>3500</v>
+      </c>
+      <c r="I219" t="s">
+        <v>38</v>
+      </c>
+      <c r="J219" t="s">
+        <v>217</v>
+      </c>
+      <c r="K219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>282</v>
+      </c>
+      <c r="C220" t="s">
+        <v>255</v>
+      </c>
+      <c r="D220">
+        <v>2007</v>
+      </c>
+      <c r="E220">
+        <v>28</v>
+      </c>
+      <c r="F220">
+        <v>61</v>
+      </c>
+      <c r="G220">
+        <v>54</v>
+      </c>
+      <c r="H220">
+        <v>2930</v>
+      </c>
+      <c r="I220" t="s">
+        <v>38</v>
+      </c>
+      <c r="J220" t="s">
+        <v>217</v>
+      </c>
+      <c r="K220" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221" t="s">
+        <v>283</v>
+      </c>
+      <c r="C221" t="s">
+        <v>255</v>
+      </c>
+      <c r="D221">
+        <v>2007</v>
+      </c>
+      <c r="E221">
+        <v>29</v>
+      </c>
+      <c r="F221">
+        <v>69</v>
+      </c>
+      <c r="G221">
+        <v>60</v>
+      </c>
+      <c r="H221">
+        <v>4210</v>
+      </c>
+      <c r="I221" t="s">
+        <v>36</v>
+      </c>
+      <c r="J221" t="s">
+        <v>217</v>
+      </c>
+      <c r="K221" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>284</v>
+      </c>
+      <c r="C222" t="s">
+        <v>255</v>
+      </c>
+      <c r="D222">
+        <v>2007</v>
+      </c>
+      <c r="E222">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <v>64</v>
+      </c>
+      <c r="G222">
+        <v>56</v>
+      </c>
+      <c r="H222">
+        <v>3610</v>
+      </c>
+      <c r="I222" t="s">
+        <v>36</v>
+      </c>
+      <c r="J222" t="s">
+        <v>217</v>
+      </c>
+      <c r="K222" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" t="s">
+        <v>218</v>
+      </c>
+      <c r="B223" t="s">
+        <v>285</v>
+      </c>
+      <c r="C223" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223">
+        <v>2007</v>
+      </c>
+      <c r="E223">
+        <v>31</v>
+      </c>
+      <c r="F223">
+        <v>61</v>
+      </c>
+      <c r="G223">
+        <v>54</v>
+      </c>
+      <c r="H223">
+        <v>2650</v>
+      </c>
+      <c r="I223" t="s">
+        <v>38</v>
+      </c>
+      <c r="J223" t="s">
+        <v>217</v>
+      </c>
+      <c r="K223" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" t="s">
+        <v>218</v>
+      </c>
+      <c r="B224" t="s">
+        <v>286</v>
+      </c>
+      <c r="C224" t="s">
+        <v>255</v>
+      </c>
+      <c r="D224">
+        <v>2007</v>
+      </c>
+      <c r="E224">
+        <v>32</v>
+      </c>
+      <c r="F224">
+        <v>60</v>
+      </c>
+      <c r="G224">
+        <v>51</v>
+      </c>
+      <c r="H224">
+        <v>2350</v>
+      </c>
+      <c r="I224" t="s">
+        <v>38</v>
+      </c>
+      <c r="J224" t="s">
+        <v>217</v>
+      </c>
+      <c r="K224" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" t="s">
+        <v>218</v>
+      </c>
+      <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225">
+        <v>2007</v>
+      </c>
+      <c r="E225">
+        <v>33</v>
+      </c>
+      <c r="F225">
+        <v>66</v>
+      </c>
+      <c r="G225">
+        <v>57</v>
+      </c>
+      <c r="H225">
+        <v>3230</v>
+      </c>
+      <c r="I225" t="s">
+        <v>36</v>
+      </c>
+      <c r="J225" t="s">
+        <v>217</v>
+      </c>
+      <c r="K225" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" t="s">
+        <v>218</v>
+      </c>
+      <c r="B226" t="s">
+        <v>288</v>
+      </c>
+      <c r="C226" t="s">
+        <v>255</v>
+      </c>
+      <c r="D226">
+        <v>2007</v>
+      </c>
+      <c r="E226">
+        <v>34</v>
+      </c>
+      <c r="F226">
+        <v>61</v>
+      </c>
+      <c r="G226">
+        <v>52</v>
+      </c>
+      <c r="H226">
+        <v>3110</v>
+      </c>
+      <c r="I226" t="s">
+        <v>36</v>
+      </c>
+      <c r="J226" t="s">
+        <v>217</v>
+      </c>
+      <c r="K226" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" t="s">
+        <v>218</v>
+      </c>
+      <c r="B227" t="s">
+        <v>289</v>
+      </c>
+      <c r="C227" t="s">
+        <v>255</v>
+      </c>
+      <c r="D227">
+        <v>2007</v>
+      </c>
+      <c r="E227">
+        <v>35</v>
+      </c>
+      <c r="F227">
+        <v>68</v>
+      </c>
+      <c r="G227">
+        <v>58</v>
+      </c>
+      <c r="H227">
+        <v>3860</v>
+      </c>
+      <c r="I227" t="s">
+        <v>36</v>
+      </c>
+      <c r="J227" t="s">
+        <v>217</v>
+      </c>
+      <c r="K227" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" t="s">
+        <v>218</v>
+      </c>
+      <c r="B228" t="s">
+        <v>290</v>
+      </c>
+      <c r="C228" t="s">
+        <v>255</v>
+      </c>
+      <c r="D228">
+        <v>2007</v>
+      </c>
+      <c r="E228">
+        <v>36</v>
+      </c>
+      <c r="F228">
+        <v>72</v>
+      </c>
+      <c r="G228">
+        <v>65</v>
+      </c>
+      <c r="H228">
+        <v>3750</v>
+      </c>
+      <c r="I228" t="s">
+        <v>36</v>
+      </c>
+      <c r="J228" t="s">
+        <v>217</v>
+      </c>
+      <c r="K228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" t="s">
+        <v>218</v>
+      </c>
+      <c r="B229" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" t="s">
+        <v>255</v>
+      </c>
+      <c r="D229">
+        <v>2007</v>
+      </c>
+      <c r="E229">
+        <v>37</v>
+      </c>
+      <c r="F229">
+        <v>64</v>
+      </c>
+      <c r="G229">
+        <v>55</v>
+      </c>
+      <c r="H229">
+        <v>3160</v>
+      </c>
+      <c r="I229" t="s">
+        <v>36</v>
+      </c>
+      <c r="J229" t="s">
+        <v>217</v>
+      </c>
+      <c r="K229" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" t="s">
+        <v>218</v>
+      </c>
+      <c r="B230" t="s">
+        <v>292</v>
+      </c>
+      <c r="C230" t="s">
+        <v>255</v>
+      </c>
+      <c r="D230">
+        <v>2007</v>
+      </c>
+      <c r="E230">
+        <v>38</v>
+      </c>
+      <c r="F230">
+        <v>69</v>
+      </c>
+      <c r="G230">
+        <v>59</v>
+      </c>
+      <c r="H230">
+        <v>3390</v>
+      </c>
+      <c r="I230" t="s">
+        <v>36</v>
+      </c>
+      <c r="J230" t="s">
+        <v>217</v>
+      </c>
+      <c r="K230" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" t="s">
+        <v>218</v>
+      </c>
+      <c r="B231" t="s">
+        <v>293</v>
+      </c>
+      <c r="C231" t="s">
+        <v>255</v>
+      </c>
+      <c r="D231">
+        <v>2007</v>
+      </c>
+      <c r="E231">
+        <v>39</v>
+      </c>
+      <c r="F231">
+        <v>67</v>
+      </c>
+      <c r="G231">
+        <v>59</v>
+      </c>
+      <c r="H231">
+        <v>4080</v>
+      </c>
+      <c r="I231" t="s">
+        <v>38</v>
+      </c>
+      <c r="J231" t="s">
+        <v>217</v>
+      </c>
+      <c r="K231" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" t="s">
+        <v>218</v>
+      </c>
+      <c r="B232" t="s">
+        <v>294</v>
+      </c>
+      <c r="C232" t="s">
+        <v>255</v>
+      </c>
+      <c r="D232">
+        <v>2007</v>
+      </c>
+      <c r="E232">
         <v>40</v>
       </c>
-      <c r="G192">
-        <v>34.5</v>
-      </c>
-      <c r="H192">
-        <v>960</v>
-      </c>
-      <c r="I192" t="s">
-        <v>38</v>
-      </c>
-      <c r="J192" t="s">
-        <v>217</v>
-      </c>
-      <c r="K192" t="s">
+      <c r="F232">
+        <v>67</v>
+      </c>
+      <c r="G232">
+        <v>58</v>
+      </c>
+      <c r="H232">
+        <v>3690</v>
+      </c>
+      <c r="I232" t="s">
+        <v>38</v>
+      </c>
+      <c r="J232" t="s">
+        <v>217</v>
+      </c>
+      <c r="K232" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" t="s">
+        <v>218</v>
+      </c>
+      <c r="B233" t="s">
+        <v>295</v>
+      </c>
+      <c r="C233" t="s">
+        <v>255</v>
+      </c>
+      <c r="D233">
+        <v>2007</v>
+      </c>
+      <c r="E233">
+        <v>41</v>
+      </c>
+      <c r="F233">
+        <v>67</v>
+      </c>
+      <c r="G233">
+        <v>58</v>
+      </c>
+      <c r="H233">
+        <v>3240</v>
+      </c>
+      <c r="I233" t="s">
+        <v>36</v>
+      </c>
+      <c r="J233" t="s">
+        <v>217</v>
+      </c>
+      <c r="K233" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>296</v>
+      </c>
+      <c r="C234" t="s">
+        <v>255</v>
+      </c>
+      <c r="D234">
+        <v>2007</v>
+      </c>
+      <c r="E234">
+        <v>42</v>
+      </c>
+      <c r="F234">
+        <v>65</v>
+      </c>
+      <c r="G234">
+        <v>55</v>
+      </c>
+      <c r="H234">
+        <v>4130</v>
+      </c>
+      <c r="I234" t="s">
+        <v>38</v>
+      </c>
+      <c r="J234" t="s">
+        <v>217</v>
+      </c>
+      <c r="K234" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" t="s">
+        <v>218</v>
+      </c>
+      <c r="B235" t="s">
+        <v>297</v>
+      </c>
+      <c r="C235" t="s">
+        <v>255</v>
+      </c>
+      <c r="D235">
+        <v>2007</v>
+      </c>
+      <c r="E235">
+        <v>43</v>
+      </c>
+      <c r="F235">
+        <v>67</v>
+      </c>
+      <c r="G235">
+        <v>58</v>
+      </c>
+      <c r="H235">
+        <v>3560</v>
+      </c>
+      <c r="I235" t="s">
+        <v>38</v>
+      </c>
+      <c r="J235" t="s">
+        <v>217</v>
+      </c>
+      <c r="K235" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" t="s">
+        <v>218</v>
+      </c>
+      <c r="B236" t="s">
+        <v>298</v>
+      </c>
+      <c r="C236" t="s">
+        <v>255</v>
+      </c>
+      <c r="D236">
+        <v>2007</v>
+      </c>
+      <c r="E236">
+        <v>44</v>
+      </c>
+      <c r="F236">
+        <v>62</v>
+      </c>
+      <c r="G236">
+        <v>52</v>
+      </c>
+      <c r="H236">
+        <v>3870</v>
+      </c>
+      <c r="I236" t="s">
+        <v>38</v>
+      </c>
+      <c r="J236" t="s">
+        <v>217</v>
+      </c>
+      <c r="K236" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" t="s">
+        <v>218</v>
+      </c>
+      <c r="B237" t="s">
+        <v>299</v>
+      </c>
+      <c r="C237" t="s">
+        <v>255</v>
+      </c>
+      <c r="D237">
+        <v>2007</v>
+      </c>
+      <c r="E237">
+        <v>45</v>
+      </c>
+      <c r="F237">
+        <v>77</v>
+      </c>
+      <c r="G237">
+        <v>64</v>
+      </c>
+      <c r="H237">
+        <v>6500</v>
+      </c>
+      <c r="I237" t="s">
+        <v>38</v>
+      </c>
+      <c r="J237" t="s">
+        <v>217</v>
+      </c>
+      <c r="K237" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
+        <v>218</v>
+      </c>
+      <c r="B238" t="s">
+        <v>300</v>
+      </c>
+      <c r="C238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D238">
+        <v>2007</v>
+      </c>
+      <c r="E238">
+        <v>46</v>
+      </c>
+      <c r="F238">
+        <v>70</v>
+      </c>
+      <c r="G238">
+        <v>61</v>
+      </c>
+      <c r="H238">
+        <v>4680</v>
+      </c>
+      <c r="I238" t="s">
+        <v>38</v>
+      </c>
+      <c r="J238" t="s">
+        <v>217</v>
+      </c>
+      <c r="K238" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
+        <v>218</v>
+      </c>
+      <c r="B239" t="s">
+        <v>301</v>
+      </c>
+      <c r="C239" t="s">
+        <v>255</v>
+      </c>
+      <c r="D239">
+        <v>2007</v>
+      </c>
+      <c r="E239">
+        <v>47</v>
+      </c>
+      <c r="F239">
+        <v>63</v>
+      </c>
+      <c r="G239">
+        <v>53</v>
+      </c>
+      <c r="H239">
+        <v>4390</v>
+      </c>
+      <c r="I239" t="s">
+        <v>38</v>
+      </c>
+      <c r="J239" t="s">
+        <v>217</v>
+      </c>
+      <c r="K239" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" t="s">
+        <v>218</v>
+      </c>
+      <c r="B240" t="s">
+        <v>302</v>
+      </c>
+      <c r="C240" t="s">
+        <v>255</v>
+      </c>
+      <c r="D240">
+        <v>2007</v>
+      </c>
+      <c r="E240">
+        <v>48</v>
+      </c>
+      <c r="F240">
+        <v>63</v>
+      </c>
+      <c r="G240">
+        <v>55.5</v>
+      </c>
+      <c r="H240">
+        <v>2780</v>
+      </c>
+      <c r="I240" t="s">
+        <v>38</v>
+      </c>
+      <c r="J240" t="s">
+        <v>217</v>
+      </c>
+      <c r="K240" t="s">
         <v>217</v>
       </c>
     </row>

--- a/metadata/sample_data_raw.xlsx
+++ b/metadata/sample_data_raw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="376">
   <si>
     <t>Sample ID</t>
   </si>
@@ -958,6 +958,207 @@
   <si>
     <t>Male</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6440</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>3970</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>4450</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>3860</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>3780</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>3770</t>
+  </si>
+  <si>
+    <t>2940</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>4140</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>5990</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>5650</t>
+  </si>
+  <si>
+    <t>4080</t>
+  </si>
+  <si>
+    <t>4090</t>
+  </si>
+  <si>
+    <t>3460</t>
+  </si>
+  <si>
+    <t>3050</t>
+  </si>
+  <si>
+    <t>3720</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>4340</t>
+  </si>
+  <si>
+    <t>3420</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>3140</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>3750</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>4180</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3580</t>
+  </si>
+  <si>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>4770</t>
+  </si>
+  <si>
+    <t>5020</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>3450</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,6 +1695,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8782,8 +8986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:N90"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection sqref="A1:K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12502,7 +12706,7 @@
         <v>218</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
@@ -12546,7 +12750,7 @@
         <v>218</v>
       </c>
       <c r="B86" s="57" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
         <v>105</v>
@@ -12590,7 +12794,7 @@
         <v>218</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -12634,7 +12838,7 @@
         <v>218</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
         <v>105</v>
@@ -12678,7 +12882,7 @@
         <v>218</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s">
         <v>105</v>
@@ -12722,7 +12926,7 @@
         <v>218</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
@@ -12766,7 +12970,7 @@
         <v>218</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
         <v>105</v>
@@ -12810,7 +13014,7 @@
         <v>218</v>
       </c>
       <c r="B92" s="57" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
@@ -17265,14 +17469,14 @@
       <c r="E193">
         <v>1</v>
       </c>
-      <c r="F193">
-        <v>83</v>
-      </c>
-      <c r="G193">
-        <v>72</v>
-      </c>
-      <c r="H193">
-        <v>7940</v>
+      <c r="F193" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G193" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H193" s="63" t="s">
+        <v>310</v>
       </c>
       <c r="I193" t="s">
         <v>38</v>
@@ -17309,14 +17513,14 @@
       <c r="E194">
         <v>2</v>
       </c>
-      <c r="F194">
-        <v>76</v>
-      </c>
-      <c r="G194">
-        <v>67</v>
-      </c>
-      <c r="H194">
-        <v>6240</v>
+      <c r="F194" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G194" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H194" s="63" t="s">
+        <v>312</v>
       </c>
       <c r="I194" t="s">
         <v>38</v>
@@ -17353,14 +17557,14 @@
       <c r="E195">
         <v>3</v>
       </c>
-      <c r="F195">
-        <v>75</v>
-      </c>
-      <c r="G195">
-        <v>64</v>
-      </c>
-      <c r="H195">
-        <v>5500</v>
+      <c r="F195" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G195" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H195" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="I195" t="s">
         <v>38</v>
@@ -17397,14 +17601,14 @@
       <c r="E196">
         <v>4</v>
       </c>
-      <c r="F196">
-        <v>83</v>
-      </c>
-      <c r="G196">
-        <v>71</v>
-      </c>
-      <c r="H196">
-        <v>7620</v>
+      <c r="F196" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G196" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H196" s="63" t="s">
+        <v>316</v>
       </c>
       <c r="I196" t="s">
         <v>38</v>
@@ -17441,14 +17645,14 @@
       <c r="E197">
         <v>5</v>
       </c>
-      <c r="F197">
-        <v>71</v>
-      </c>
-      <c r="G197">
-        <v>62</v>
-      </c>
-      <c r="H197">
-        <v>4410</v>
+      <c r="F197" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G197" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H197" s="63" t="s">
+        <v>318</v>
       </c>
       <c r="I197" t="s">
         <v>38</v>
@@ -17485,14 +17689,14 @@
       <c r="E198">
         <v>6</v>
       </c>
-      <c r="F198">
-        <v>70</v>
-      </c>
-      <c r="G198">
-        <v>61</v>
-      </c>
-      <c r="H198">
-        <v>4560</v>
+      <c r="F198" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="G198" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H198" s="63" t="s">
+        <v>320</v>
       </c>
       <c r="I198" t="s">
         <v>38</v>
@@ -17529,14 +17733,14 @@
       <c r="E199">
         <v>7</v>
       </c>
-      <c r="F199">
-        <v>69</v>
-      </c>
-      <c r="G199">
-        <v>60</v>
-      </c>
-      <c r="H199">
-        <v>5100</v>
+      <c r="F199" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G199" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H199" s="63" t="s">
+        <v>322</v>
       </c>
       <c r="I199" t="s">
         <v>38</v>
@@ -17573,14 +17777,14 @@
       <c r="E200">
         <v>8</v>
       </c>
-      <c r="F200">
-        <v>76</v>
-      </c>
-      <c r="G200">
-        <v>67</v>
-      </c>
-      <c r="H200">
-        <v>6650</v>
+      <c r="F200" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G200" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H200" s="63" t="s">
+        <v>323</v>
       </c>
       <c r="I200" t="s">
         <v>38</v>
@@ -17617,14 +17821,14 @@
       <c r="E201">
         <v>9</v>
       </c>
-      <c r="F201">
-        <v>68</v>
-      </c>
-      <c r="G201">
-        <v>60</v>
-      </c>
-      <c r="H201">
-        <v>3560</v>
+      <c r="F201" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G201" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H201" s="63" t="s">
+        <v>324</v>
       </c>
       <c r="I201" t="s">
         <v>36</v>
@@ -17661,14 +17865,14 @@
       <c r="E202">
         <v>10</v>
       </c>
-      <c r="F202">
-        <v>70</v>
-      </c>
-      <c r="G202">
-        <v>62</v>
-      </c>
-      <c r="H202">
-        <v>3840</v>
+      <c r="F202" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G202" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H202" s="63" t="s">
+        <v>325</v>
       </c>
       <c r="I202" t="s">
         <v>36</v>
@@ -17705,14 +17909,14 @@
       <c r="E203">
         <v>11</v>
       </c>
-      <c r="F203">
-        <v>68</v>
-      </c>
-      <c r="G203">
-        <v>57</v>
-      </c>
-      <c r="H203">
-        <v>3700</v>
+      <c r="F203" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G203" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H203" s="63" t="s">
+        <v>326</v>
       </c>
       <c r="I203" t="s">
         <v>38</v>
@@ -17749,14 +17953,14 @@
       <c r="E204">
         <v>12</v>
       </c>
-      <c r="F204">
-        <v>64</v>
-      </c>
-      <c r="G204">
-        <v>54</v>
-      </c>
-      <c r="H204">
-        <v>4370</v>
+      <c r="F204" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G204" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H204" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="I204" t="s">
         <v>38</v>
@@ -17793,14 +17997,14 @@
       <c r="E205">
         <v>13</v>
       </c>
-      <c r="F205">
-        <v>66</v>
-      </c>
-      <c r="G205">
-        <v>59</v>
-      </c>
-      <c r="H205">
-        <v>3450</v>
+      <c r="F205" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G205" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H205" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="I205" t="s">
         <v>38</v>
@@ -17837,14 +18041,14 @@
       <c r="E206">
         <v>14</v>
       </c>
-      <c r="F206">
-        <v>70</v>
-      </c>
-      <c r="G206">
-        <v>61</v>
-      </c>
-      <c r="H206">
-        <v>3150</v>
+      <c r="F206" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G206" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H206" s="63" t="s">
+        <v>330</v>
       </c>
       <c r="I206" t="s">
         <v>38</v>
@@ -17872,14 +18076,14 @@
       <c r="E207">
         <v>15</v>
       </c>
-      <c r="F207">
-        <v>60</v>
-      </c>
-      <c r="G207">
-        <v>52</v>
-      </c>
-      <c r="H207">
-        <v>2930</v>
+      <c r="F207" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="G207" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H207" s="63" t="s">
+        <v>332</v>
       </c>
       <c r="I207" t="s">
         <v>38</v>
@@ -17907,14 +18111,14 @@
       <c r="E208">
         <v>16</v>
       </c>
-      <c r="F208">
-        <v>67</v>
-      </c>
-      <c r="G208">
-        <v>59</v>
-      </c>
-      <c r="H208">
-        <v>3690</v>
+      <c r="F208" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="G208" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H208" s="63" t="s">
+        <v>334</v>
       </c>
       <c r="I208" t="s">
         <v>38</v>
@@ -17942,14 +18146,14 @@
       <c r="E209">
         <v>17</v>
       </c>
-      <c r="F209">
-        <v>60</v>
-      </c>
-      <c r="G209">
-        <v>51</v>
-      </c>
-      <c r="H209">
-        <v>3600</v>
+      <c r="F209" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="G209" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H209" s="63" t="s">
+        <v>336</v>
       </c>
       <c r="I209" t="s">
         <v>38</v>
@@ -17977,14 +18181,14 @@
       <c r="E210">
         <v>18</v>
       </c>
-      <c r="F210">
-        <v>59</v>
-      </c>
-      <c r="G210">
-        <v>51</v>
-      </c>
-      <c r="H210">
-        <v>3100</v>
+      <c r="F210" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G210" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H210" s="63" t="s">
+        <v>337</v>
       </c>
       <c r="I210" t="s">
         <v>38</v>
@@ -18012,14 +18216,14 @@
       <c r="E211">
         <v>19</v>
       </c>
-      <c r="F211">
-        <v>70</v>
-      </c>
-      <c r="G211">
-        <v>61</v>
-      </c>
-      <c r="H211">
-        <v>4340</v>
+      <c r="F211" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G211" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H211" s="63" t="s">
+        <v>338</v>
       </c>
       <c r="I211" t="s">
         <v>38</v>
@@ -18047,14 +18251,14 @@
       <c r="E212">
         <v>20</v>
       </c>
-      <c r="F212">
-        <v>58</v>
-      </c>
-      <c r="G212">
-        <v>50.5</v>
-      </c>
-      <c r="H212">
-        <v>2860</v>
+      <c r="F212" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G212" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H212" s="63" t="s">
+        <v>339</v>
       </c>
       <c r="I212" t="s">
         <v>38</v>
@@ -18082,14 +18286,14 @@
       <c r="E213">
         <v>21</v>
       </c>
-      <c r="F213">
-        <v>75</v>
-      </c>
-      <c r="G213">
-        <v>65</v>
-      </c>
-      <c r="H213">
-        <v>4900</v>
+      <c r="F213" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G213" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H213" s="63" t="s">
+        <v>340</v>
       </c>
       <c r="I213" t="s">
         <v>36</v>
@@ -18117,14 +18321,14 @@
       <c r="E214">
         <v>22</v>
       </c>
-      <c r="F214">
-        <v>68</v>
-      </c>
-      <c r="G214">
-        <v>60</v>
-      </c>
-      <c r="H214">
-        <v>3580</v>
+      <c r="F214" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G214" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H214" s="63" t="s">
+        <v>341</v>
       </c>
       <c r="I214" t="s">
         <v>36</v>
@@ -18152,14 +18356,14 @@
       <c r="E215">
         <v>23</v>
       </c>
-      <c r="F215">
-        <v>62</v>
-      </c>
-      <c r="G215">
-        <v>53</v>
-      </c>
-      <c r="H215">
-        <v>3550</v>
+      <c r="F215" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="G215" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H215" s="63" t="s">
+        <v>342</v>
       </c>
       <c r="I215" t="s">
         <v>38</v>
@@ -18187,14 +18391,14 @@
       <c r="E216">
         <v>24</v>
       </c>
-      <c r="F216">
-        <v>64</v>
-      </c>
-      <c r="G216">
-        <v>54</v>
-      </c>
-      <c r="H216">
-        <v>3060</v>
+      <c r="F216" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="G216" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H216" s="63" t="s">
+        <v>344</v>
       </c>
       <c r="I216" t="s">
         <v>38</v>
@@ -18222,14 +18426,14 @@
       <c r="E217">
         <v>25</v>
       </c>
-      <c r="F217">
-        <v>64</v>
-      </c>
-      <c r="G217">
-        <v>55</v>
-      </c>
-      <c r="H217">
-        <v>3390</v>
+      <c r="F217" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G217" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H217" s="63" t="s">
+        <v>345</v>
       </c>
       <c r="I217" t="s">
         <v>38</v>
@@ -18257,14 +18461,14 @@
       <c r="E218">
         <v>26</v>
       </c>
-      <c r="F218">
-        <v>67</v>
-      </c>
-      <c r="G218">
-        <v>57</v>
-      </c>
-      <c r="H218">
-        <v>3560</v>
+      <c r="F218" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G218" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H218" s="63" t="s">
+        <v>346</v>
       </c>
       <c r="I218" t="s">
         <v>38</v>
@@ -18292,14 +18496,14 @@
       <c r="E219">
         <v>27</v>
       </c>
-      <c r="F219">
-        <v>60</v>
-      </c>
-      <c r="G219">
-        <v>53</v>
-      </c>
-      <c r="H219">
-        <v>3500</v>
+      <c r="F219" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G219" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H219" s="63" t="s">
+        <v>347</v>
       </c>
       <c r="I219" t="s">
         <v>38</v>
@@ -18327,14 +18531,14 @@
       <c r="E220">
         <v>28</v>
       </c>
-      <c r="F220">
-        <v>61</v>
-      </c>
-      <c r="G220">
-        <v>54</v>
-      </c>
-      <c r="H220">
-        <v>2930</v>
+      <c r="F220" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G220" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H220" s="63" t="s">
+        <v>348</v>
       </c>
       <c r="I220" t="s">
         <v>38</v>
@@ -18362,14 +18566,14 @@
       <c r="E221">
         <v>29</v>
       </c>
-      <c r="F221">
-        <v>69</v>
-      </c>
-      <c r="G221">
-        <v>60</v>
-      </c>
-      <c r="H221">
-        <v>4210</v>
+      <c r="F221" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="G221" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H221" s="63" t="s">
+        <v>350</v>
       </c>
       <c r="I221" t="s">
         <v>36</v>
@@ -18397,14 +18601,14 @@
       <c r="E222">
         <v>30</v>
       </c>
-      <c r="F222">
-        <v>64</v>
-      </c>
-      <c r="G222">
-        <v>56</v>
-      </c>
-      <c r="H222">
-        <v>3610</v>
+      <c r="F222" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="G222" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H222" s="63" t="s">
+        <v>352</v>
       </c>
       <c r="I222" t="s">
         <v>36</v>
@@ -18432,14 +18636,14 @@
       <c r="E223">
         <v>31</v>
       </c>
-      <c r="F223">
-        <v>61</v>
-      </c>
-      <c r="G223">
-        <v>54</v>
-      </c>
-      <c r="H223">
-        <v>2650</v>
+      <c r="F223" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G223" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H223" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="I223" t="s">
         <v>38</v>
@@ -18467,14 +18671,14 @@
       <c r="E224">
         <v>32</v>
       </c>
-      <c r="F224">
-        <v>60</v>
-      </c>
-      <c r="G224">
-        <v>51</v>
-      </c>
-      <c r="H224">
-        <v>2350</v>
+      <c r="F224" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="G224" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H224" s="63" t="s">
+        <v>356</v>
       </c>
       <c r="I224" t="s">
         <v>38</v>
@@ -18502,14 +18706,14 @@
       <c r="E225">
         <v>33</v>
       </c>
-      <c r="F225">
-        <v>66</v>
-      </c>
-      <c r="G225">
-        <v>57</v>
-      </c>
-      <c r="H225">
-        <v>3230</v>
+      <c r="F225" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G225" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H225" s="63" t="s">
+        <v>358</v>
       </c>
       <c r="I225" t="s">
         <v>36</v>
@@ -18537,14 +18741,14 @@
       <c r="E226">
         <v>34</v>
       </c>
-      <c r="F226">
-        <v>61</v>
-      </c>
-      <c r="G226">
-        <v>52</v>
-      </c>
-      <c r="H226">
-        <v>3110</v>
+      <c r="F226" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G226" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H226" s="63" t="s">
+        <v>359</v>
       </c>
       <c r="I226" t="s">
         <v>36</v>
@@ -18572,14 +18776,14 @@
       <c r="E227">
         <v>35</v>
       </c>
-      <c r="F227">
-        <v>68</v>
-      </c>
-      <c r="G227">
-        <v>58</v>
-      </c>
-      <c r="H227">
-        <v>3860</v>
+      <c r="F227" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G227" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H227" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="I227" t="s">
         <v>36</v>
@@ -18607,14 +18811,14 @@
       <c r="E228">
         <v>36</v>
       </c>
-      <c r="F228">
-        <v>72</v>
-      </c>
-      <c r="G228">
-        <v>65</v>
-      </c>
-      <c r="H228">
-        <v>3750</v>
+      <c r="F228" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G228" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H228" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="I228" t="s">
         <v>36</v>
@@ -18642,14 +18846,14 @@
       <c r="E229">
         <v>37</v>
       </c>
-      <c r="F229">
-        <v>64</v>
-      </c>
-      <c r="G229">
-        <v>55</v>
-      </c>
-      <c r="H229">
-        <v>3160</v>
+      <c r="F229" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="G229" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H229" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="I229" t="s">
         <v>36</v>
@@ -18677,14 +18881,14 @@
       <c r="E230">
         <v>38</v>
       </c>
-      <c r="F230">
-        <v>69</v>
-      </c>
-      <c r="G230">
-        <v>59</v>
-      </c>
-      <c r="H230">
-        <v>3390</v>
+      <c r="F230" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G230" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H230" s="63" t="s">
+        <v>363</v>
       </c>
       <c r="I230" t="s">
         <v>36</v>
@@ -18712,14 +18916,14 @@
       <c r="E231">
         <v>39</v>
       </c>
-      <c r="F231">
-        <v>67</v>
-      </c>
-      <c r="G231">
-        <v>59</v>
-      </c>
-      <c r="H231">
-        <v>4080</v>
+      <c r="F231" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="G231" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H231" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="I231" t="s">
         <v>38</v>
@@ -18747,14 +18951,14 @@
       <c r="E232">
         <v>40</v>
       </c>
-      <c r="F232">
-        <v>67</v>
-      </c>
-      <c r="G232">
-        <v>58</v>
-      </c>
-      <c r="H232">
-        <v>3690</v>
+      <c r="F232" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="G232" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H232" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="I232" t="s">
         <v>38</v>
@@ -18782,14 +18986,14 @@
       <c r="E233">
         <v>41</v>
       </c>
-      <c r="F233">
-        <v>67</v>
-      </c>
-      <c r="G233">
-        <v>58</v>
-      </c>
-      <c r="H233">
-        <v>3240</v>
+      <c r="F233" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="G233" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H233" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="I233" t="s">
         <v>36</v>
@@ -18817,14 +19021,14 @@
       <c r="E234">
         <v>42</v>
       </c>
-      <c r="F234">
-        <v>65</v>
-      </c>
-      <c r="G234">
-        <v>55</v>
-      </c>
-      <c r="H234">
-        <v>4130</v>
+      <c r="F234" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="G234" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H234" s="63" t="s">
+        <v>370</v>
       </c>
       <c r="I234" t="s">
         <v>38</v>
@@ -18852,14 +19056,14 @@
       <c r="E235">
         <v>43</v>
       </c>
-      <c r="F235">
-        <v>67</v>
-      </c>
-      <c r="G235">
-        <v>58</v>
-      </c>
-      <c r="H235">
-        <v>3560</v>
+      <c r="F235" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="G235" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H235" s="63" t="s">
+        <v>372</v>
       </c>
       <c r="I235" t="s">
         <v>38</v>
@@ -18887,14 +19091,14 @@
       <c r="E236">
         <v>44</v>
       </c>
-      <c r="F236">
-        <v>62</v>
-      </c>
-      <c r="G236">
-        <v>52</v>
-      </c>
-      <c r="H236">
-        <v>3870</v>
+      <c r="F236" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="G236" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H236" s="63" t="s">
+        <v>373</v>
       </c>
       <c r="I236" t="s">
         <v>38</v>
@@ -18922,14 +19126,14 @@
       <c r="E237">
         <v>45</v>
       </c>
-      <c r="F237">
-        <v>77</v>
-      </c>
-      <c r="G237">
-        <v>64</v>
-      </c>
-      <c r="H237">
-        <v>6500</v>
+      <c r="F237" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G237" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H237" s="63" t="s">
+        <v>374</v>
       </c>
       <c r="I237" t="s">
         <v>38</v>
@@ -18957,14 +19161,14 @@
       <c r="E238">
         <v>46</v>
       </c>
-      <c r="F238">
-        <v>70</v>
-      </c>
-      <c r="G238">
-        <v>61</v>
-      </c>
-      <c r="H238">
-        <v>4680</v>
+      <c r="F238" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="G238" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H238" s="63" t="s">
+        <v>338</v>
       </c>
       <c r="I238" t="s">
         <v>38</v>
@@ -18992,14 +19196,14 @@
       <c r="E239">
         <v>47</v>
       </c>
-      <c r="F239">
-        <v>63</v>
-      </c>
-      <c r="G239">
-        <v>53</v>
-      </c>
-      <c r="H239">
-        <v>4390</v>
+      <c r="F239" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G239" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H239" s="63" t="s">
+        <v>375</v>
       </c>
       <c r="I239" t="s">
         <v>38</v>
@@ -19027,14 +19231,14 @@
       <c r="E240">
         <v>48</v>
       </c>
-      <c r="F240">
-        <v>63</v>
-      </c>
-      <c r="G240">
-        <v>55.5</v>
-      </c>
-      <c r="H240">
-        <v>2780</v>
+      <c r="F240" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G240" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="H240" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
